--- a/DA/src/main/resources/excel-templates/humanAndPerformance-template.xlsx
+++ b/DA/src/main/resources/excel-templates/humanAndPerformance-template.xlsx
@@ -41,18 +41,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#{syb}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{dq}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{fgs}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#{lcNum}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -70,6 +58,18 @@
   </si>
   <si>
     <t>#ser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{sybname}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{dqname}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{fgsname}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -556,25 +556,25 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
